--- a/Code/Results/Cases/Case_1_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.297272360031172</v>
+        <v>1.41001060599632</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1536267422242616</v>
+        <v>0.356293015795174</v>
       </c>
       <c r="E2">
-        <v>0.3436838064938357</v>
+        <v>0.3926404006151571</v>
       </c>
       <c r="F2">
-        <v>0.3166228251811063</v>
+        <v>0.9919449766321051</v>
       </c>
       <c r="G2">
-        <v>0.2491815838447522</v>
+        <v>0.4375848817354751</v>
       </c>
       <c r="H2">
-        <v>0.2094677217081298</v>
+        <v>0.5941441820509468</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6607941254159897</v>
+        <v>0.5416419997120556</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.393488182720318</v>
+        <v>0.5033688759775146</v>
       </c>
       <c r="M2">
-        <v>0.8715467244695532</v>
+        <v>0.4028218309640721</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9172735642367655</v>
+        <v>2.015990485758905</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.010336355248228</v>
+        <v>1.32008532015783</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1555027649294587</v>
+        <v>0.3590302003380472</v>
       </c>
       <c r="E3">
-        <v>0.3248485586692809</v>
+        <v>0.3883399168390014</v>
       </c>
       <c r="F3">
-        <v>0.3236021616105056</v>
+        <v>1.007595196475258</v>
       </c>
       <c r="G3">
-        <v>0.2334176610619139</v>
+        <v>0.4408672511645193</v>
       </c>
       <c r="H3">
-        <v>0.2088478500129369</v>
+        <v>0.6002901003361245</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6098716877567227</v>
+        <v>0.526970396728359</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.213687459107291</v>
+        <v>0.4432435597438769</v>
       </c>
       <c r="M3">
-        <v>0.758996515093564</v>
+        <v>0.3660694387339873</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8821508437555394</v>
+        <v>2.035515809570953</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.834575663722035</v>
+        <v>1.264874843027684</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1568552945995663</v>
+        <v>0.3608602421195002</v>
       </c>
       <c r="E4">
-        <v>0.3135337702776724</v>
+        <v>0.3858484676206473</v>
       </c>
       <c r="F4">
-        <v>0.3293326982873737</v>
+        <v>1.0179941853293</v>
       </c>
       <c r="G4">
-        <v>0.2247340510750604</v>
+        <v>0.4433316687481863</v>
       </c>
       <c r="H4">
-        <v>0.2090873111345246</v>
+        <v>0.6044287552210079</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5789580705553163</v>
+        <v>0.5181354003748453</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.103336618821572</v>
+        <v>0.406164936221785</v>
       </c>
       <c r="M4">
-        <v>0.6899587836706971</v>
+        <v>0.3434325268575762</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8639834814394334</v>
+        <v>2.049210091926227</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.763029485817128</v>
+        <v>1.242378602987827</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1574563641919084</v>
+        <v>0.361643676466926</v>
       </c>
       <c r="E5">
-        <v>0.3089835632212328</v>
+        <v>0.3848709440015199</v>
       </c>
       <c r="F5">
-        <v>0.3320147650694807</v>
+        <v>1.022430181236185</v>
       </c>
       <c r="G5">
-        <v>0.2214302721038237</v>
+        <v>0.4444485617130667</v>
       </c>
       <c r="H5">
-        <v>0.2093339047076199</v>
+        <v>0.6062070446800973</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5664442704944719</v>
+        <v>0.5145792234501414</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.058365962216413</v>
+        <v>0.3910155843610994</v>
       </c>
       <c r="M5">
-        <v>0.6618329149856592</v>
+        <v>0.3341906064422773</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8573873535367511</v>
+        <v>2.055218825407877</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.751153219315768</v>
+        <v>1.23864331277349</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1575591698857295</v>
+        <v>0.3617760440094102</v>
       </c>
       <c r="E6">
-        <v>0.3082316066481354</v>
+        <v>0.3847109159477569</v>
       </c>
       <c r="F6">
-        <v>0.3324805973300364</v>
+        <v>1.023178745843886</v>
       </c>
       <c r="G6">
-        <v>0.2208954291246243</v>
+        <v>0.4446408145625824</v>
       </c>
       <c r="H6">
-        <v>0.2093836555748609</v>
+        <v>0.6065078689032646</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5643712833186356</v>
+        <v>0.5139914060934956</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.050898129448569</v>
+        <v>0.388497691800751</v>
       </c>
       <c r="M6">
-        <v>0.6571628237060168</v>
+        <v>0.3326549721032919</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8563394865258118</v>
+        <v>2.056242412820794</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.833610487430406</v>
+        <v>1.264571438877141</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1568631994816485</v>
+        <v>0.3608706550885898</v>
       </c>
       <c r="E7">
-        <v>0.3134721618034817</v>
+        <v>0.3858351311261217</v>
       </c>
       <c r="F7">
-        <v>0.3293674866423686</v>
+        <v>1.018053208052066</v>
       </c>
       <c r="G7">
-        <v>0.2246885641039</v>
+        <v>0.4433462759372375</v>
       </c>
       <c r="H7">
-        <v>0.2090900423276878</v>
+        <v>0.604452366397048</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5787889722889759</v>
+        <v>0.5180872610147418</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.102730153471583</v>
+        <v>0.4059607852964859</v>
       </c>
       <c r="M7">
-        <v>0.6895794500046719</v>
+        <v>0.3433079558977639</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8638913161604904</v>
+        <v>2.049289394965967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.198232498375489</v>
+        <v>1.379004381349091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1542316087680291</v>
+        <v>0.3572058547485284</v>
       </c>
       <c r="E8">
-        <v>0.3371360902417351</v>
+        <v>0.3911268190372823</v>
       </c>
       <c r="F8">
-        <v>0.3187191317387885</v>
+        <v>0.9971771231228637</v>
       </c>
       <c r="G8">
-        <v>0.2435300211768023</v>
+        <v>0.4386232724819337</v>
       </c>
       <c r="H8">
-        <v>0.2091210313540728</v>
+        <v>0.5961875091457642</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.64315965382076</v>
+        <v>0.5365475557554902</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.331474367856742</v>
+        <v>0.4826717995838976</v>
       </c>
       <c r="M8">
-        <v>0.832719112609638</v>
+        <v>0.3901646496403472</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9044287932601378</v>
+        <v>2.022368388762061</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.917960014494952</v>
+        <v>1.603386346007369</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1506898359809554</v>
+        <v>0.3511998319389065</v>
       </c>
       <c r="E9">
-        <v>0.3856385500346846</v>
+        <v>0.4026753629466668</v>
       </c>
       <c r="F9">
-        <v>0.3100914065876097</v>
+        <v>0.962515999530325</v>
       </c>
       <c r="G9">
-        <v>0.2891143951630539</v>
+        <v>0.4329377096978533</v>
       </c>
       <c r="H9">
-        <v>0.2144309475574033</v>
+        <v>0.5828783051089061</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7724448158955397</v>
+        <v>0.5741027522332303</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.781115104533598</v>
+        <v>0.6317810884826827</v>
       </c>
       <c r="M9">
-        <v>1.11444505442978</v>
+        <v>0.4814668553256922</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.013138830741696</v>
+        <v>1.983142354511159</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.451727805248481</v>
+        <v>1.768174249557433</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1491146208265093</v>
+        <v>0.3475005972194225</v>
       </c>
       <c r="E10">
-        <v>0.4227272630530408</v>
+        <v>0.4118607411449915</v>
       </c>
       <c r="F10">
-        <v>0.3123791751130511</v>
+        <v>0.9408917103092449</v>
       </c>
       <c r="G10">
-        <v>0.3289595690616807</v>
+        <v>0.4309597034821024</v>
       </c>
       <c r="H10">
-        <v>0.2220181850076273</v>
+        <v>0.5748693695767173</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8696881365597307</v>
+        <v>0.6024952602652434</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.113206251327711</v>
+        <v>0.7404842833495877</v>
       </c>
       <c r="M10">
-        <v>1.322806727534569</v>
+        <v>0.5481683406017055</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.114147378754467</v>
+        <v>1.962639239110217</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.696149793183395</v>
+        <v>1.843116508522996</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1486306511783653</v>
+        <v>0.3459712995426187</v>
       </c>
       <c r="E11">
-        <v>0.4399587849605169</v>
+        <v>0.4161888328911587</v>
       </c>
       <c r="F11">
-        <v>0.3155680080889312</v>
+        <v>0.9318914726628336</v>
       </c>
       <c r="G11">
-        <v>0.3487257650154305</v>
+        <v>0.4305414698975767</v>
       </c>
       <c r="H11">
-        <v>0.2263861924189854</v>
+        <v>0.5716106484035777</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.914514535101091</v>
+        <v>0.6155806505448993</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.264928014649115</v>
+        <v>0.7897441771930289</v>
       </c>
       <c r="M11">
-        <v>1.418078419451376</v>
+        <v>0.5784262536100613</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.165482905737406</v>
+        <v>1.955127549862368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.788982991481873</v>
+        <v>1.871491069821047</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1484817009941182</v>
+        <v>0.345414161735178</v>
       </c>
       <c r="E12">
-        <v>0.4465395060345827</v>
+        <v>0.4178490366848422</v>
       </c>
       <c r="F12">
-        <v>0.3171091794277814</v>
+        <v>0.9286039102368733</v>
       </c>
       <c r="G12">
-        <v>0.3564699650835905</v>
+        <v>0.4304526619482374</v>
       </c>
       <c r="H12">
-        <v>0.2281824944809472</v>
+        <v>0.5704320050735134</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9315827021684413</v>
+        <v>0.6205596490882499</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.322498545444262</v>
+        <v>0.808369451671183</v>
       </c>
       <c r="M12">
-        <v>1.454241624528876</v>
+        <v>0.5898714410537167</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.185768313777061</v>
+        <v>1.952544880838218</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.768976681302263</v>
+        <v>1.865380321500425</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1485122392178226</v>
+        <v>0.3455331756016307</v>
       </c>
       <c r="E13">
-        <v>0.4451196968864224</v>
+        <v>0.4174905412030938</v>
       </c>
       <c r="F13">
-        <v>0.3167620093049379</v>
+        <v>0.9293065756108732</v>
       </c>
       <c r="G13">
-        <v>0.35479019709922</v>
+        <v>0.4304686892267142</v>
       </c>
       <c r="H13">
-        <v>0.2277891283231241</v>
+        <v>0.570683383725239</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9279024695320857</v>
+        <v>0.6194862804598529</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.310094118673618</v>
+        <v>0.804359444936523</v>
       </c>
       <c r="M13">
-        <v>1.446449144769048</v>
+        <v>0.5874070953557862</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.18136068184802</v>
+        <v>1.953089446395609</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.703781438404462</v>
+        <v>1.845450998288072</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1486177039505847</v>
+        <v>0.3459250236534857</v>
       </c>
       <c r="E14">
-        <v>0.4404990492750684</v>
+        <v>0.4163249944927188</v>
       </c>
       <c r="F14">
-        <v>0.3156879666982064</v>
+        <v>0.9316185835229902</v>
       </c>
       <c r="G14">
-        <v>0.3493575513370217</v>
+        <v>0.4305327675518384</v>
       </c>
       <c r="H14">
-        <v>0.226531062163545</v>
+        <v>0.5715125707904463</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9159168202784542</v>
+        <v>0.6159898008517928</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.269661896997576</v>
+        <v>0.7912770646838112</v>
       </c>
       <c r="M14">
-        <v>1.421051771276112</v>
+        <v>0.5793681166409215</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.167134421334168</v>
+        <v>1.954909819758853</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.663884785476455</v>
+        <v>1.833243089698783</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1486868003490258</v>
+        <v>0.3461679006334251</v>
       </c>
       <c r="E15">
-        <v>0.4376761174819848</v>
+        <v>0.4156138229687443</v>
       </c>
       <c r="F15">
-        <v>0.3150742975220737</v>
+        <v>0.9330504740801402</v>
       </c>
       <c r="G15">
-        <v>0.3460643709709643</v>
+        <v>0.4305810865980959</v>
       </c>
       <c r="H15">
-        <v>0.2257793061821616</v>
+        <v>0.5720276835911307</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.908587691867325</v>
+        <v>0.6138511959611606</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.244911921806505</v>
+        <v>0.783260001160528</v>
       </c>
       <c r="M15">
-        <v>1.405506824598447</v>
+        <v>0.5744423214440104</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.158532772800498</v>
+        <v>1.956058974814567</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.43579035004808</v>
+        <v>1.763276054957544</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1491510029597833</v>
+        <v>0.3476036207585906</v>
       </c>
       <c r="E16">
-        <v>0.4216086973927844</v>
+        <v>0.4115808780703532</v>
       </c>
       <c r="F16">
-        <v>0.3122160771509286</v>
+        <v>0.9414967610702263</v>
       </c>
       <c r="G16">
-        <v>0.3277027624968696</v>
+        <v>0.4309967537792119</v>
       </c>
       <c r="H16">
-        <v>0.2217520431092623</v>
+        <v>0.575090078704747</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8667712109411809</v>
+        <v>0.601643464589074</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.103305920150206</v>
+        <v>0.7372611215189409</v>
       </c>
       <c r="M16">
-        <v>1.316591622821562</v>
+        <v>0.5461891530718077</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.11090683588435</v>
+        <v>1.963166743119501</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.296304363666536</v>
+        <v>1.720347208921226</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1494959515183396</v>
+        <v>0.3485236331643051</v>
       </c>
       <c r="E17">
-        <v>0.4118465780353517</v>
+        <v>0.4091449274090664</v>
       </c>
       <c r="F17">
-        <v>0.3110298846222292</v>
+        <v>0.9468928182101166</v>
       </c>
       <c r="G17">
-        <v>0.3168746960144091</v>
+        <v>0.4313753217036549</v>
       </c>
       <c r="H17">
-        <v>0.2195233804252155</v>
+        <v>0.5770673036331573</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8412751006674029</v>
+        <v>0.5941974502968463</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.016617965714289</v>
+        <v>0.7089929187252437</v>
       </c>
       <c r="M17">
-        <v>1.262180616773108</v>
+        <v>0.5288345567608985</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.083118460880456</v>
+        <v>1.967992643954716</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.216224218271577</v>
+        <v>1.695653821918256</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1497161948116812</v>
+        <v>0.3490672542487161</v>
       </c>
       <c r="E18">
-        <v>0.4062652737498382</v>
+        <v>0.4077579312897299</v>
       </c>
       <c r="F18">
-        <v>0.3105482273931344</v>
+        <v>0.9500752291553241</v>
       </c>
       <c r="G18">
-        <v>0.3107995921267559</v>
+        <v>0.4316383728587994</v>
       </c>
       <c r="H18">
-        <v>0.2183271125359454</v>
+        <v>0.5782407463520514</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8266653832688036</v>
+        <v>0.5899306845919909</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.966817205117508</v>
+        <v>0.6927160017325491</v>
       </c>
       <c r="M18">
-        <v>1.23092965028853</v>
+        <v>0.5188446943731577</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.067637737511944</v>
+        <v>1.970939189343937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.189134661356206</v>
+        <v>1.687292793238328</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1497944905876025</v>
+        <v>0.3492538005935302</v>
       </c>
       <c r="E19">
-        <v>0.4043812019031634</v>
+        <v>0.4072907477819143</v>
       </c>
       <c r="F19">
-        <v>0.3104188762250928</v>
+        <v>0.9511662533686334</v>
       </c>
       <c r="G19">
-        <v>0.3087682475852915</v>
+        <v>0.4317352095543612</v>
       </c>
       <c r="H19">
-        <v>0.2179364730768611</v>
+        <v>0.5786442685944024</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8217279767459758</v>
+        <v>0.5884887926713702</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.949965133270439</v>
+        <v>0.68720189474638</v>
       </c>
       <c r="M19">
-        <v>1.220355843164882</v>
+        <v>0.515460950793809</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.062480434943438</v>
+        <v>1.97196615182682</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.311137203550004</v>
+        <v>1.72491726018427</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1494569648969275</v>
+        <v>0.3484242010333745</v>
       </c>
       <c r="E20">
-        <v>0.4128822674783805</v>
+        <v>0.4094027813321262</v>
       </c>
       <c r="F20">
-        <v>0.3111352209827061</v>
+        <v>0.9463102470212519</v>
       </c>
       <c r="G20">
-        <v>0.3180113729924443</v>
+        <v>0.4313303308834833</v>
       </c>
       <c r="H20">
-        <v>0.2197516929516752</v>
+        <v>0.5768530781477352</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8439834562658461</v>
+        <v>0.5949884407176569</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.025839690607938</v>
+        <v>0.7120039668124036</v>
       </c>
       <c r="M20">
-        <v>1.267968013346604</v>
+        <v>0.5306828112334472</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.086024083470022</v>
+        <v>1.967461233984096</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.722923000230367</v>
+        <v>1.851304855992964</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1485857877551453</v>
+        <v>0.3458093328002363</v>
       </c>
       <c r="E21">
-        <v>0.4418547068688028</v>
+        <v>0.4166667692073034</v>
       </c>
       <c r="F21">
-        <v>0.3159941784263012</v>
+        <v>0.9309362143949897</v>
       </c>
       <c r="G21">
-        <v>0.3509460231390449</v>
+        <v>0.430512055611743</v>
       </c>
       <c r="H21">
-        <v>0.2268966394953935</v>
+        <v>0.5712675154130835</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9194346897197363</v>
+        <v>0.6170161586815368</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.281534457217674</v>
+        <v>0.7951204556998164</v>
       </c>
       <c r="M21">
-        <v>1.428509131645683</v>
+        <v>0.5817297125467888</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.171289471267841</v>
+        <v>1.954368019170033</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.993680315495851</v>
+        <v>1.93387986935835</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1482169080437785</v>
+        <v>0.344228401332181</v>
       </c>
       <c r="E22">
-        <v>0.4611154711075187</v>
+        <v>0.4215379425988601</v>
       </c>
       <c r="F22">
-        <v>0.3211272323327137</v>
+        <v>0.921591673175719</v>
       </c>
       <c r="G22">
-        <v>0.373993443757854</v>
+        <v>0.4303829071196077</v>
       </c>
       <c r="H22">
-        <v>0.2324007323003343</v>
+        <v>0.5679397568820121</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9692952569050988</v>
+        <v>0.631551295049178</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.449338677540197</v>
+        <v>0.8492759802366834</v>
       </c>
       <c r="M22">
-        <v>1.533940956455339</v>
+        <v>0.6150167661819381</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.231982016503167</v>
+        <v>1.947337448185209</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.849007057510789</v>
+        <v>1.889810948456386</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.148395137512189</v>
+        <v>0.3450604914869615</v>
       </c>
       <c r="E23">
-        <v>0.4508045055647187</v>
+        <v>0.4189268703279438</v>
       </c>
       <c r="F23">
-        <v>0.318199871110501</v>
+        <v>0.9265145798580647</v>
       </c>
       <c r="G23">
-        <v>0.3615451210097547</v>
+        <v>0.4304146152700241</v>
       </c>
       <c r="H23">
-        <v>0.2293830861958952</v>
+        <v>0.569686294472973</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9426304918962956</v>
+        <v>0.623781095901478</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.359706860297905</v>
+        <v>0.8203876951225197</v>
       </c>
       <c r="M23">
-        <v>1.477617848541058</v>
+        <v>0.5972579067644261</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.199109868934698</v>
+        <v>1.950949846436856</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.30443093047063</v>
+        <v>1.722851180450391</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1494745225134295</v>
+        <v>0.3484691085217619</v>
       </c>
       <c r="E24">
-        <v>0.4124139357938148</v>
+        <v>0.4092861636122507</v>
       </c>
       <c r="F24">
-        <v>0.3110869763713708</v>
+        <v>0.9465733778285284</v>
       </c>
       <c r="G24">
-        <v>0.317497015555503</v>
+        <v>0.4313505298163989</v>
       </c>
       <c r="H24">
-        <v>0.2196482088200469</v>
+        <v>0.576949815144232</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8427588587813943</v>
+        <v>0.5946307901523937</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.021670434323966</v>
+        <v>0.7106427502366728</v>
       </c>
       <c r="M24">
-        <v>1.265351437084604</v>
+        <v>0.5298472541954169</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.084708914433492</v>
+        <v>1.967700948500891</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.722542399454994</v>
+        <v>1.542692853217659</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1514707164898965</v>
+        <v>0.3526988862182279</v>
       </c>
       <c r="E25">
-        <v>0.3722756143873411</v>
+        <v>0.3994271691524744</v>
       </c>
       <c r="F25">
-        <v>0.3109986565974836</v>
+        <v>0.9712192449146855</v>
       </c>
       <c r="G25">
-        <v>0.2757498711324544</v>
+        <v>0.4340909700741591</v>
       </c>
       <c r="H25">
-        <v>0.2123842766823998</v>
+        <v>0.5861682648570934</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.73710402035546</v>
+        <v>0.5638006846137955</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.659253853629025</v>
+        <v>0.591588906741606</v>
       </c>
       <c r="M25">
-        <v>1.038046712466084</v>
+        <v>0.4568320301291706</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9802716610831794</v>
+        <v>1.992296917565085</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.41001060599632</v>
+        <v>2.297272360030604</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.356293015795174</v>
+        <v>0.1536267422242119</v>
       </c>
       <c r="E2">
-        <v>0.3926404006151571</v>
+        <v>0.3436838064938286</v>
       </c>
       <c r="F2">
-        <v>0.9919449766321051</v>
+        <v>0.3166228251811063</v>
       </c>
       <c r="G2">
-        <v>0.4375848817354751</v>
+        <v>0.2491815838448233</v>
       </c>
       <c r="H2">
-        <v>0.5941441820509468</v>
+        <v>0.209467721708144</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5416419997120556</v>
+        <v>0.6607941254159186</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5033688759775146</v>
+        <v>1.393488182720404</v>
       </c>
       <c r="M2">
-        <v>0.4028218309640721</v>
+        <v>0.8715467244695176</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.015990485758905</v>
+        <v>0.9172735642368082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.32008532015783</v>
+        <v>2.010336355247944</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3590302003380472</v>
+        <v>0.1555027649296008</v>
       </c>
       <c r="E3">
-        <v>0.3883399168390014</v>
+        <v>0.3248485586692809</v>
       </c>
       <c r="F3">
-        <v>1.007595196475258</v>
+        <v>0.3236021616105056</v>
       </c>
       <c r="G3">
-        <v>0.4408672511645193</v>
+        <v>0.2334176610619139</v>
       </c>
       <c r="H3">
-        <v>0.6002901003361245</v>
+        <v>0.2088478500130506</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.526970396728359</v>
+        <v>0.6098716877567512</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4432435597438769</v>
+        <v>1.213687459107319</v>
       </c>
       <c r="M3">
-        <v>0.3660694387339873</v>
+        <v>0.7589965150935569</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.035515809570953</v>
+        <v>0.8821508437555536</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.264874843027684</v>
+        <v>1.834575663722035</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3608602421195002</v>
+        <v>0.1568552945995592</v>
       </c>
       <c r="E4">
-        <v>0.3858484676206473</v>
+        <v>0.3135337702777363</v>
       </c>
       <c r="F4">
-        <v>1.0179941853293</v>
+        <v>0.3293326982873701</v>
       </c>
       <c r="G4">
-        <v>0.4433316687481863</v>
+        <v>0.2247340510751243</v>
       </c>
       <c r="H4">
-        <v>0.6044287552210079</v>
+        <v>0.2090873111344109</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5181354003748453</v>
+        <v>0.5789580705552311</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.406164936221785</v>
+        <v>1.103336618821658</v>
       </c>
       <c r="M4">
-        <v>0.3434325268575762</v>
+        <v>0.6899587836706971</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.049210091926227</v>
+        <v>0.8639834814394476</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242378602987827</v>
+        <v>1.763029485817015</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.361643676466926</v>
+        <v>0.157456364192015</v>
       </c>
       <c r="E5">
-        <v>0.3848709440015199</v>
+        <v>0.3089835632211759</v>
       </c>
       <c r="F5">
-        <v>1.022430181236185</v>
+        <v>0.3320147650694807</v>
       </c>
       <c r="G5">
-        <v>0.4444485617130667</v>
+        <v>0.2214302721038806</v>
       </c>
       <c r="H5">
-        <v>0.6062070446800973</v>
+        <v>0.209333904707627</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5145792234501414</v>
+        <v>0.5664442704945571</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3910155843610994</v>
+        <v>1.058365962216442</v>
       </c>
       <c r="M5">
-        <v>0.3341906064422773</v>
+        <v>0.6618329149856237</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.055218825407877</v>
+        <v>0.8573873535367511</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23864331277349</v>
+        <v>1.751153219315825</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3617760440094102</v>
+        <v>0.1575591698855874</v>
       </c>
       <c r="E6">
-        <v>0.3847109159477569</v>
+        <v>0.308231606648171</v>
       </c>
       <c r="F6">
-        <v>1.023178745843886</v>
+        <v>0.3324805973300045</v>
       </c>
       <c r="G6">
-        <v>0.4446408145625824</v>
+        <v>0.2208954291246172</v>
       </c>
       <c r="H6">
-        <v>0.6065078689032646</v>
+        <v>0.2093836555748609</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5139914060934956</v>
+        <v>0.5643712833184935</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.388497691800751</v>
+        <v>1.050898129448598</v>
       </c>
       <c r="M6">
-        <v>0.3326549721032919</v>
+        <v>0.6571628237060168</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.056242412820794</v>
+        <v>0.8563394865258118</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.264571438877141</v>
+        <v>1.833610487430519</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3608706550885898</v>
+        <v>0.1568631994815846</v>
       </c>
       <c r="E7">
-        <v>0.3858351311261217</v>
+        <v>0.3134721618034817</v>
       </c>
       <c r="F7">
-        <v>1.018053208052066</v>
+        <v>0.3293674866423437</v>
       </c>
       <c r="G7">
-        <v>0.4433462759372375</v>
+        <v>0.2246885641039214</v>
       </c>
       <c r="H7">
-        <v>0.604452366397048</v>
+        <v>0.2090900423276807</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5180872610147418</v>
+        <v>0.5787889722890043</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4059607852964859</v>
+        <v>1.10273015347147</v>
       </c>
       <c r="M7">
-        <v>0.3433079558977639</v>
+        <v>0.6895794500046719</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.049289394965967</v>
+        <v>0.8638913161604904</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.379004381349091</v>
+        <v>2.19823249837566</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3572058547485284</v>
+        <v>0.1542316087682849</v>
       </c>
       <c r="E8">
-        <v>0.3911268190372823</v>
+        <v>0.3371360902417209</v>
       </c>
       <c r="F8">
-        <v>0.9971771231228637</v>
+        <v>0.3187191317387956</v>
       </c>
       <c r="G8">
-        <v>0.4386232724819337</v>
+        <v>0.2435300211767526</v>
       </c>
       <c r="H8">
-        <v>0.5961875091457642</v>
+        <v>0.209121031354087</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5365475557554902</v>
+        <v>0.6431596538209448</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4826717995838976</v>
+        <v>1.331474367856742</v>
       </c>
       <c r="M8">
-        <v>0.3901646496403472</v>
+        <v>0.832719112609638</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.022368388762061</v>
+        <v>0.9044287932601378</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.603386346007369</v>
+        <v>2.917960014494668</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3511998319389065</v>
+        <v>0.1506898359810123</v>
       </c>
       <c r="E9">
-        <v>0.4026753629466668</v>
+        <v>0.3856385500346917</v>
       </c>
       <c r="F9">
-        <v>0.962515999530325</v>
+        <v>0.3100914065875742</v>
       </c>
       <c r="G9">
-        <v>0.4329377096978533</v>
+        <v>0.2891143951630539</v>
       </c>
       <c r="H9">
-        <v>0.5828783051089061</v>
+        <v>0.2144309475574033</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5741027522332303</v>
+        <v>0.7724448158954544</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6317810884826827</v>
+        <v>1.781115104533598</v>
       </c>
       <c r="M9">
-        <v>0.4814668553256922</v>
+        <v>1.11444505442978</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.983142354511159</v>
+        <v>1.013138830741667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.768174249557433</v>
+        <v>3.451727805248822</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3475005972194225</v>
+        <v>0.1491146208264311</v>
       </c>
       <c r="E10">
-        <v>0.4118607411449915</v>
+        <v>0.4227272630530621</v>
       </c>
       <c r="F10">
-        <v>0.9408917103092449</v>
+        <v>0.312379175113044</v>
       </c>
       <c r="G10">
-        <v>0.4309597034821024</v>
+        <v>0.3289595690616807</v>
       </c>
       <c r="H10">
-        <v>0.5748693695767173</v>
+        <v>0.2220181850076131</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6024952602652434</v>
+        <v>0.8696881365596738</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7404842833495877</v>
+        <v>2.113206251327767</v>
       </c>
       <c r="M10">
-        <v>0.5481683406017055</v>
+        <v>1.322806727534527</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.962639239110217</v>
+        <v>1.114147378754382</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.843116508522996</v>
+        <v>3.696149793183679</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3459712995426187</v>
+        <v>0.148630651178479</v>
       </c>
       <c r="E11">
-        <v>0.4161888328911587</v>
+        <v>0.4399587849605595</v>
       </c>
       <c r="F11">
-        <v>0.9318914726628336</v>
+        <v>0.3155680080889312</v>
       </c>
       <c r="G11">
-        <v>0.4305414698975767</v>
+        <v>0.3487257650153737</v>
       </c>
       <c r="H11">
-        <v>0.5716106484035777</v>
+        <v>0.2263861924190991</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6155806505448993</v>
+        <v>0.9145145351010342</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7897441771930289</v>
+        <v>2.264928014649257</v>
       </c>
       <c r="M11">
-        <v>0.5784262536100613</v>
+        <v>1.418078419451376</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.955127549862368</v>
+        <v>1.165482905737406</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.871491069821047</v>
+        <v>3.788982991482101</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.345414161735178</v>
+        <v>0.1484817009940684</v>
       </c>
       <c r="E12">
-        <v>0.4178490366848422</v>
+        <v>0.4465395060345827</v>
       </c>
       <c r="F12">
-        <v>0.9286039102368733</v>
+        <v>0.3171091794277885</v>
       </c>
       <c r="G12">
-        <v>0.4304526619482374</v>
+        <v>0.3564699650836332</v>
       </c>
       <c r="H12">
-        <v>0.5704320050735134</v>
+        <v>0.2281824944809472</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6205596490882499</v>
+        <v>0.931582702168555</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.808369451671183</v>
+        <v>2.322498545444375</v>
       </c>
       <c r="M12">
-        <v>0.5898714410537167</v>
+        <v>1.454241624528834</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.952544880838218</v>
+        <v>1.185768313777061</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.865380321500425</v>
+        <v>3.768976681302092</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3455331756016307</v>
+        <v>0.1485122392179363</v>
       </c>
       <c r="E13">
-        <v>0.4174905412030938</v>
+        <v>0.4451196968864295</v>
       </c>
       <c r="F13">
-        <v>0.9293065756108732</v>
+        <v>0.3167620093049379</v>
       </c>
       <c r="G13">
-        <v>0.4304686892267142</v>
+        <v>0.354790197099291</v>
       </c>
       <c r="H13">
-        <v>0.570683383725239</v>
+        <v>0.2277891283231241</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6194862804598529</v>
+        <v>0.9279024695321425</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.804359444936523</v>
+        <v>2.31009411867376</v>
       </c>
       <c r="M13">
-        <v>0.5874070953557862</v>
+        <v>1.446449144769034</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.953089446395609</v>
+        <v>1.18136068184802</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.845450998288072</v>
+        <v>3.703781438404064</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3459250236534857</v>
+        <v>0.148617703950741</v>
       </c>
       <c r="E14">
-        <v>0.4163249944927188</v>
+        <v>0.4404990492750827</v>
       </c>
       <c r="F14">
-        <v>0.9316185835229902</v>
+        <v>0.3156879666981993</v>
       </c>
       <c r="G14">
-        <v>0.4305327675518384</v>
+        <v>0.3493575513370502</v>
       </c>
       <c r="H14">
-        <v>0.5715125707904463</v>
+        <v>0.226531062163545</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6159898008517928</v>
+        <v>0.915916820278369</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7912770646838112</v>
+        <v>2.26966189699769</v>
       </c>
       <c r="M14">
-        <v>0.5793681166409215</v>
+        <v>1.421051771276083</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.954909819758853</v>
+        <v>1.167134421334197</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.833243089698783</v>
+        <v>3.663884785476284</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3461679006334251</v>
+        <v>0.1486868003489121</v>
       </c>
       <c r="E15">
-        <v>0.4156138229687443</v>
+        <v>0.4376761174819919</v>
       </c>
       <c r="F15">
-        <v>0.9330504740801402</v>
+        <v>0.3150742975220737</v>
       </c>
       <c r="G15">
-        <v>0.4305810865980959</v>
+        <v>0.3460643709709643</v>
       </c>
       <c r="H15">
-        <v>0.5720276835911307</v>
+        <v>0.2257793061821616</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6138511959611606</v>
+        <v>0.9085876918673534</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.783260001160528</v>
+        <v>2.244911921806505</v>
       </c>
       <c r="M15">
-        <v>0.5744423214440104</v>
+        <v>1.405506824598504</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.956058974814567</v>
+        <v>1.158532772800498</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.763276054957544</v>
+        <v>3.435790350048137</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3476036207585906</v>
+        <v>0.1491510029597123</v>
       </c>
       <c r="E16">
-        <v>0.4115808780703532</v>
+        <v>0.4216086973927489</v>
       </c>
       <c r="F16">
-        <v>0.9414967610702263</v>
+        <v>0.3122160771509357</v>
       </c>
       <c r="G16">
-        <v>0.4309967537792119</v>
+        <v>0.3277027624967985</v>
       </c>
       <c r="H16">
-        <v>0.575090078704747</v>
+        <v>0.2217520431092623</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.601643464589074</v>
+        <v>0.8667712109411667</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7372611215189409</v>
+        <v>2.103305920150348</v>
       </c>
       <c r="M16">
-        <v>0.5461891530718077</v>
+        <v>1.316591622821534</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.963166743119501</v>
+        <v>1.110906835884265</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.720347208921226</v>
+        <v>3.29630436366665</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3485236331643051</v>
+        <v>0.1494959515183965</v>
       </c>
       <c r="E17">
-        <v>0.4091449274090664</v>
+        <v>0.411846578035366</v>
       </c>
       <c r="F17">
-        <v>0.9468928182101166</v>
+        <v>0.3110298846222364</v>
       </c>
       <c r="G17">
-        <v>0.4313753217036549</v>
+        <v>0.3168746960143949</v>
       </c>
       <c r="H17">
-        <v>0.5770673036331573</v>
+        <v>0.2195233804252155</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5941974502968463</v>
+        <v>0.8412751006675308</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7089929187252437</v>
+        <v>2.016617965714318</v>
       </c>
       <c r="M17">
-        <v>0.5288345567608985</v>
+        <v>1.262180616773065</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.967992643954716</v>
+        <v>1.083118460880485</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.695653821918256</v>
+        <v>3.216224218271464</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3490672542487161</v>
+        <v>0.1497161948117949</v>
       </c>
       <c r="E18">
-        <v>0.4077579312897299</v>
+        <v>0.4062652737498667</v>
       </c>
       <c r="F18">
-        <v>0.9500752291553241</v>
+        <v>0.3105482273931202</v>
       </c>
       <c r="G18">
-        <v>0.4316383728587994</v>
+        <v>0.3107995921267275</v>
       </c>
       <c r="H18">
-        <v>0.5782407463520514</v>
+        <v>0.2183271125359312</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5899306845919909</v>
+        <v>0.8266653832687751</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6927160017325491</v>
+        <v>1.966817205117707</v>
       </c>
       <c r="M18">
-        <v>0.5188446943731577</v>
+        <v>1.230929650288516</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.970939189343937</v>
+        <v>1.067637737511888</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.687292793238328</v>
+        <v>3.189134661355922</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3492538005935302</v>
+        <v>0.1497944905876452</v>
       </c>
       <c r="E19">
-        <v>0.4072907477819143</v>
+        <v>0.404381201903135</v>
       </c>
       <c r="F19">
-        <v>0.9511662533686334</v>
+        <v>0.310418876225107</v>
       </c>
       <c r="G19">
-        <v>0.4317352095543612</v>
+        <v>0.3087682475852773</v>
       </c>
       <c r="H19">
-        <v>0.5786442685944024</v>
+        <v>0.2179364730769748</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5884887926713702</v>
+        <v>0.8217279767460326</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.68720189474638</v>
+        <v>1.94996513327041</v>
       </c>
       <c r="M19">
-        <v>0.515460950793809</v>
+        <v>1.220355843164882</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.97196615182682</v>
+        <v>1.062480434943438</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.72491726018427</v>
+        <v>3.31113720354989</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3484242010333745</v>
+        <v>0.1494569648968849</v>
       </c>
       <c r="E20">
-        <v>0.4094027813321262</v>
+        <v>0.4128822674783876</v>
       </c>
       <c r="F20">
-        <v>0.9463102470212519</v>
+        <v>0.3111352209827061</v>
       </c>
       <c r="G20">
-        <v>0.4313303308834833</v>
+        <v>0.3180113729923875</v>
       </c>
       <c r="H20">
-        <v>0.5768530781477352</v>
+        <v>0.2197516929515615</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5949884407176569</v>
+        <v>0.8439834562659456</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7120039668124036</v>
+        <v>2.025839690607995</v>
       </c>
       <c r="M20">
-        <v>0.5306828112334472</v>
+        <v>1.267968013346604</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.967461233984096</v>
+        <v>1.086024083469965</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.851304855992964</v>
+        <v>3.722923000230139</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3458093328002363</v>
+        <v>0.14858578775506</v>
       </c>
       <c r="E21">
-        <v>0.4166667692073034</v>
+        <v>0.4418547068687815</v>
       </c>
       <c r="F21">
-        <v>0.9309362143949897</v>
+        <v>0.3159941784263154</v>
       </c>
       <c r="G21">
-        <v>0.430512055611743</v>
+        <v>0.3509460231390307</v>
       </c>
       <c r="H21">
-        <v>0.5712675154130835</v>
+        <v>0.2268966394954077</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6170161586815368</v>
+        <v>0.9194346897197647</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7951204556998164</v>
+        <v>2.281534457217674</v>
       </c>
       <c r="M21">
-        <v>0.5817297125467888</v>
+        <v>1.428509131645697</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.954368019170033</v>
+        <v>1.171289471267841</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.93387986935835</v>
+        <v>3.993680315495567</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.344228401332181</v>
+        <v>0.1482169080437075</v>
       </c>
       <c r="E22">
-        <v>0.4215379425988601</v>
+        <v>0.46111547110754</v>
       </c>
       <c r="F22">
-        <v>0.921591673175719</v>
+        <v>0.3211272323327137</v>
       </c>
       <c r="G22">
-        <v>0.4303829071196077</v>
+        <v>0.3739934437578398</v>
       </c>
       <c r="H22">
-        <v>0.5679397568820121</v>
+        <v>0.2324007323002206</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.631551295049178</v>
+        <v>0.9692952569051556</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8492759802366834</v>
+        <v>2.44933867754014</v>
       </c>
       <c r="M22">
-        <v>0.6150167661819381</v>
+        <v>1.533940956455311</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.947337448185209</v>
+        <v>1.231982016503139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.889810948456386</v>
+        <v>3.849007057510562</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3450604914869615</v>
+        <v>0.1483951375120398</v>
       </c>
       <c r="E23">
-        <v>0.4189268703279438</v>
+        <v>0.4508045055647258</v>
       </c>
       <c r="F23">
-        <v>0.9265145798580647</v>
+        <v>0.3181998711105081</v>
       </c>
       <c r="G23">
-        <v>0.4304146152700241</v>
+        <v>0.361545121009712</v>
       </c>
       <c r="H23">
-        <v>0.569686294472973</v>
+        <v>0.2293830861960089</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.623781095901478</v>
+        <v>0.9426304918963524</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8203876951225197</v>
+        <v>2.35970686029782</v>
       </c>
       <c r="M23">
-        <v>0.5972579067644261</v>
+        <v>1.477617848541058</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.950949846436856</v>
+        <v>1.199109868934698</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.722851180450391</v>
+        <v>3.304430930470858</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3484691085217619</v>
+        <v>0.1494745225135006</v>
       </c>
       <c r="E24">
-        <v>0.4092861636122507</v>
+        <v>0.412413935793829</v>
       </c>
       <c r="F24">
-        <v>0.9465733778285284</v>
+        <v>0.3110869763713708</v>
       </c>
       <c r="G24">
-        <v>0.4313505298163989</v>
+        <v>0.3174970155555172</v>
       </c>
       <c r="H24">
-        <v>0.576949815144232</v>
+        <v>0.2196482088201606</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5946307901523937</v>
+        <v>0.8427588587813943</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7106427502366728</v>
+        <v>2.021670434324079</v>
       </c>
       <c r="M24">
-        <v>0.5298472541954169</v>
+        <v>1.265351437084576</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.967700948500891</v>
+        <v>1.084708914433492</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.542692853217659</v>
+        <v>2.722542399454539</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3526988862182279</v>
+        <v>0.1514707164900031</v>
       </c>
       <c r="E25">
-        <v>0.3994271691524744</v>
+        <v>0.372275614387334</v>
       </c>
       <c r="F25">
-        <v>0.9712192449146855</v>
+        <v>0.3109986565974907</v>
       </c>
       <c r="G25">
-        <v>0.4340909700741591</v>
+        <v>0.2757498711324473</v>
       </c>
       <c r="H25">
-        <v>0.5861682648570934</v>
+        <v>0.2123842766823998</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5638006846137955</v>
+        <v>0.7371040203555452</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.591588906741606</v>
+        <v>1.659253853629025</v>
       </c>
       <c r="M25">
-        <v>0.4568320301291706</v>
+        <v>1.038046712466112</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.992296917565085</v>
+        <v>0.9802716610832078</v>
       </c>
     </row>
   </sheetData>
